--- a/doblado de tubo emt.xlsx
+++ b/doblado de tubo emt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauriciorivero/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauriciorivero/Documents/DevTraining-CalcPipe-App-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F9E11-F0AE-BB42-9ACF-C513095EBAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE512448-9979-AC4F-8CED-8309B250F65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doblez antes de un obstaculo" sheetId="5" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,13 +1106,13 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -1582,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
